--- a/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.02054519090531859</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.08114533699244299</v>
+        <v>0.08114533699244302</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.04929890258115117</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005823221892430243</v>
+        <v>0.005917184131454757</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04880247936584669</v>
+        <v>0.04839362077124233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02995320168687266</v>
+        <v>0.02794869330449994</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05399462981829168</v>
+        <v>0.05666691954487577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1326076980466464</v>
+        <v>0.1322756296396715</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07555671803059182</v>
+        <v>0.07666150086061123</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.06124863940183463</v>
+        <v>0.06124863940183464</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.06838268125702318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06489484223617235</v>
+        <v>0.06489484223617234</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03706837649832963</v>
+        <v>0.03750949960895859</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04753088017692159</v>
+        <v>0.04864375064727482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04846672843935493</v>
+        <v>0.04819193087699399</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08828877739860856</v>
+        <v>0.0922559723702487</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09625225220478394</v>
+        <v>0.09854782008104787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08650365378499822</v>
+        <v>0.0857665454652551</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05813422659000578</v>
+        <v>0.05849205655694763</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06382019667708923</v>
+        <v>0.06291653046164623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06704248725344901</v>
+        <v>0.06675136147207732</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1040017628992631</v>
+        <v>0.1053279173469062</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09818552747382672</v>
+        <v>0.09870496440478496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09775690363567539</v>
+        <v>0.09523186564133401</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08135931394943861</v>
+        <v>0.08073992042837169</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1030506970952932</v>
+        <v>0.1023584193449356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09659038609977745</v>
+        <v>0.09687839217742987</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1257587336384655</v>
+        <v>0.1280562836023816</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1405090832781632</v>
+        <v>0.1400083078407301</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1270977555250934</v>
+        <v>0.1261466768232583</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1511960885034723</v>
+        <v>0.1511960885034724</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1856587472199552</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.168342430738768</v>
+        <v>0.1683424307387681</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1243419654990349</v>
+        <v>0.1254140066940136</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1627903799587647</v>
+        <v>0.1617708286693444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1505742609272621</v>
+        <v>0.1502288395150914</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1795200449867054</v>
+        <v>0.1780244555903537</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2115708459686514</v>
+        <v>0.2094642495426634</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1862895595807945</v>
+        <v>0.1870266081783773</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09812782375127452</v>
+        <v>0.1007657604160984</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1613548500230097</v>
+        <v>0.1607713318550501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1389066264959986</v>
+        <v>0.1382602703115444</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.152058011576087</v>
+        <v>0.1533662035683383</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2120337674266292</v>
+        <v>0.2111238218212909</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1749512631193337</v>
+        <v>0.1773249600522789</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1609003500101895</v>
+        <v>0.1599122620651366</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.308260581222301</v>
+        <v>0.3080776941332528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2577470517662985</v>
+        <v>0.2573377360625045</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2332919517621893</v>
+        <v>0.2326223419039009</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3739954374640459</v>
+        <v>0.3738147541147677</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3079397526399507</v>
+        <v>0.3097908261450281</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.1021706220805332</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.1475312675094848</v>
+        <v>0.1475312675094847</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.1254441700403704</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.09194559555463047</v>
+        <v>0.09326011257788132</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1379396183898319</v>
+        <v>0.1377898445649172</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1189350111770999</v>
+        <v>0.1191688562675132</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1136340313038072</v>
+        <v>0.1131820528511616</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1573843814129733</v>
+        <v>0.158588840036393</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1321030025201212</v>
+        <v>0.133037194885832</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2327</v>
+        <v>2365</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17608</v>
+        <v>17460</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22776</v>
+        <v>21252</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21576</v>
+        <v>22644</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47844</v>
+        <v>47725</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57453</v>
+        <v>58294</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17622</v>
+        <v>17832</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23622</v>
+        <v>24175</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47128</v>
+        <v>46861</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41972</v>
+        <v>43858</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47836</v>
+        <v>48976</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>84114</v>
+        <v>83398</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35827</v>
+        <v>36048</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39405</v>
+        <v>38847</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82712</v>
+        <v>82353</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>64095</v>
+        <v>64912</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60624</v>
+        <v>60945</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>120606</v>
+        <v>117490</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>56286</v>
+        <v>55858</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>74545</v>
+        <v>74044</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>136695</v>
+        <v>137103</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87003</v>
+        <v>88592</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>101642</v>
+        <v>101280</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>179870</v>
+        <v>178524</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>74694</v>
+        <v>75338</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>96831</v>
+        <v>96225</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>180017</v>
+        <v>179604</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>107841</v>
+        <v>106942</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>125847</v>
+        <v>124594</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>222716</v>
+        <v>223597</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>39330</v>
+        <v>40388</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69690</v>
+        <v>69438</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>115669</v>
+        <v>115131</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>60946</v>
+        <v>61470</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>91578</v>
+        <v>91185</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>145684</v>
+        <v>147660</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>48088</v>
+        <v>47792</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>137266</v>
+        <v>137185</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>191805</v>
+        <v>191500</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>69723</v>
+        <v>69523</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>166537</v>
+        <v>166457</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>229156</v>
+        <v>230533</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>320293</v>
+        <v>324872</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>506324</v>
+        <v>505775</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>850876</v>
+        <v>852549</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>395844</v>
+        <v>394270</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>577699</v>
+        <v>582120</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>945081</v>
+        <v>951765</v>
       </c>
     </row>
     <row r="36">
